--- a/db/db-challenge2/データベース定義書テンプレートYongdai.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレートYongdai.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YONG/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YONG/Documents/dev/quelcode/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1780" windowWidth="44680" windowHeight="30960" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="43460" windowHeight="15960" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="126">
   <si>
     <t>改定履歴</t>
   </si>
@@ -714,9 +714,6 @@
     <t>参加日時</t>
   </si>
   <si>
-    <t>chato_room_id</t>
-  </si>
-  <si>
     <t>member_user_id</t>
   </si>
   <si>
@@ -30281,7 +30278,7 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30669,7 +30666,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -30945,7 +30942,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
@@ -31198,7 +31195,7 @@
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
@@ -31227,7 +31224,7 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
@@ -31256,7 +31253,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
@@ -31630,7 +31627,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
@@ -31796,9 +31793,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31819,7 +31816,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -31883,7 +31880,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>50</v>
@@ -31896,7 +31893,7 @@
         <v>51</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="24"/>
@@ -31910,7 +31907,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>50</v>
@@ -31923,7 +31920,7 @@
         <v>51</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -31937,7 +31934,7 @@
         <v>104</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -32104,7 +32101,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
+    <sheetView zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
@@ -32127,7 +32124,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -32137,7 +32134,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -32188,10 +32185,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>50</v>
@@ -32217,10 +32214,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>57</v>
@@ -32242,10 +32239,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>50</v>
@@ -32269,10 +32266,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>75</v>
@@ -32317,10 +32314,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>74</v>
@@ -32337,7 +32334,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.15">
@@ -32366,7 +32363,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">

--- a/db/db-challenge2/データベース定義書テンプレートYongdai.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレートYongdai.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="43460" windowHeight="15960" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="43460" windowHeight="15960" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
     <sheet name="記入例" sheetId="3" r:id="rId2"/>
     <sheet name="テンプレート" sheetId="2" r:id="rId3"/>
     <sheet name="Users" sheetId="4" r:id="rId4"/>
-    <sheet name="Chatroom" sheetId="5" r:id="rId5"/>
+    <sheet name="Chatrooms" sheetId="5" r:id="rId5"/>
     <sheet name="Chatposts" sheetId="6" r:id="rId6"/>
     <sheet name="Chatmembers" sheetId="7" r:id="rId7"/>
     <sheet name="Tasks" sheetId="8" r:id="rId8"/>
@@ -31041,7 +31041,7 @@
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31793,7 +31793,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
+    <sheetView zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -32101,7 +32101,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
